--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H2">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I2">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J2">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0953419517446715</v>
+        <v>0.12783</v>
       </c>
       <c r="N2">
-        <v>0.0953419517446715</v>
+        <v>0.38349</v>
       </c>
       <c r="O2">
-        <v>0.006199488120246877</v>
+        <v>0.007411519513986452</v>
       </c>
       <c r="P2">
-        <v>0.006199488120246877</v>
+        <v>0.008565831359064333</v>
       </c>
       <c r="Q2">
-        <v>0.03043024387418456</v>
+        <v>0.07502615404</v>
       </c>
       <c r="R2">
-        <v>0.03043024387418456</v>
+        <v>0.67523538636</v>
       </c>
       <c r="S2">
-        <v>6.42833792442951E-05</v>
+        <v>0.0001359331270097156</v>
       </c>
       <c r="T2">
-        <v>6.42833792442951E-05</v>
+        <v>0.000209605709224971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H3">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I3">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J3">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.910490222578989</v>
+        <v>10.14695433333333</v>
       </c>
       <c r="N3">
-        <v>8.910490222578989</v>
+        <v>30.440863</v>
       </c>
       <c r="O3">
-        <v>0.5793931975337572</v>
+        <v>0.5883153410704013</v>
       </c>
       <c r="P3">
-        <v>0.5793931975337572</v>
+        <v>0.6799428899903026</v>
       </c>
       <c r="Q3">
-        <v>2.8439567844988</v>
+        <v>5.955463966592444</v>
       </c>
       <c r="R3">
-        <v>2.8439567844988</v>
+        <v>53.599175699332</v>
       </c>
       <c r="S3">
-        <v>0.006007810955712277</v>
+        <v>0.0107901684436735</v>
       </c>
       <c r="T3">
-        <v>0.006007810955712277</v>
+        <v>0.01663818790199269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H4">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I4">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J4">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.37317168783307</v>
+        <v>6.972691</v>
       </c>
       <c r="N4">
-        <v>6.37317168783307</v>
+        <v>13.945382</v>
       </c>
       <c r="O4">
-        <v>0.4144073143459959</v>
+        <v>0.4042731394156123</v>
       </c>
       <c r="P4">
-        <v>0.4144073143459959</v>
+        <v>0.3114912786506331</v>
       </c>
       <c r="Q4">
-        <v>2.034122074951624</v>
+        <v>4.092421098641333</v>
       </c>
       <c r="R4">
-        <v>2.034122074951624</v>
+        <v>24.554526591848</v>
       </c>
       <c r="S4">
-        <v>0.004297048729347775</v>
+        <v>0.007414688972091848</v>
       </c>
       <c r="T4">
-        <v>0.004297048729347775</v>
+        <v>0.007622184892756381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H5">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I5">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J5">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0953419517446715</v>
+        <v>0.12783</v>
       </c>
       <c r="N5">
-        <v>0.0953419517446715</v>
+        <v>0.38349</v>
       </c>
       <c r="O5">
-        <v>0.006199488120246877</v>
+        <v>0.007411519513986452</v>
       </c>
       <c r="P5">
-        <v>0.006199488120246877</v>
+        <v>0.008565831359064333</v>
       </c>
       <c r="Q5">
-        <v>0.63755655472405</v>
+        <v>0.9291896228399998</v>
       </c>
       <c r="R5">
-        <v>0.63755655472405</v>
+        <v>8.36270660556</v>
       </c>
       <c r="S5">
-        <v>0.001346827516942157</v>
+        <v>0.001683514937341435</v>
       </c>
       <c r="T5">
-        <v>0.001346827516942157</v>
+        <v>0.002595940740825177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H6">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I6">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J6">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.910490222578989</v>
+        <v>10.14695433333333</v>
       </c>
       <c r="N6">
-        <v>8.910490222578989</v>
+        <v>30.440863</v>
       </c>
       <c r="O6">
-        <v>0.5793931975337572</v>
+        <v>0.5883153410704013</v>
       </c>
       <c r="P6">
-        <v>0.5793931975337572</v>
+        <v>0.6799428899903026</v>
       </c>
       <c r="Q6">
-        <v>59.5849082513385</v>
+        <v>73.75768340737466</v>
       </c>
       <c r="R6">
-        <v>59.5849082513385</v>
+        <v>663.8191506663719</v>
       </c>
       <c r="S6">
-        <v>0.1258721182187687</v>
+        <v>0.1336348993873744</v>
       </c>
       <c r="T6">
-        <v>0.1258721182187687</v>
+        <v>0.2060618958710207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H7">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J7">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.37317168783307</v>
+        <v>6.972691</v>
       </c>
       <c r="N7">
-        <v>6.37317168783307</v>
+        <v>13.945382</v>
       </c>
       <c r="O7">
-        <v>0.4144073143459959</v>
+        <v>0.4042731394156123</v>
       </c>
       <c r="P7">
-        <v>0.4144073143459959</v>
+        <v>0.3114912786506331</v>
       </c>
       <c r="Q7">
-        <v>42.61772818371949</v>
+        <v>50.68412829906799</v>
       </c>
       <c r="R7">
-        <v>42.61772818371949</v>
+        <v>304.104769794408</v>
       </c>
       <c r="S7">
-        <v>0.09002923521386789</v>
+        <v>0.09183000431797066</v>
       </c>
       <c r="T7">
-        <v>0.09002923521386789</v>
+        <v>0.09439981558885523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H8">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I8">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J8">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0953419517446715</v>
+        <v>0.12783</v>
       </c>
       <c r="N8">
-        <v>0.0953419517446715</v>
+        <v>0.38349</v>
       </c>
       <c r="O8">
-        <v>0.006199488120246877</v>
+        <v>0.007411519513986452</v>
       </c>
       <c r="P8">
-        <v>0.006199488120246877</v>
+        <v>0.008565831359064333</v>
       </c>
       <c r="Q8">
-        <v>2.266705459524842</v>
+        <v>0.008991434369999999</v>
       </c>
       <c r="R8">
-        <v>2.266705459524842</v>
+        <v>0.08092290933</v>
       </c>
       <c r="S8">
-        <v>0.004788377224060425</v>
+        <v>1.629076961035616E-05</v>
       </c>
       <c r="T8">
-        <v>0.004788377224060425</v>
+        <v>2.511998651921876E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H9">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I9">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J9">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.910490222578989</v>
+        <v>10.14695433333333</v>
       </c>
       <c r="N9">
-        <v>8.910490222578989</v>
+        <v>30.440863</v>
       </c>
       <c r="O9">
-        <v>0.5793931975337572</v>
+        <v>0.5883153410704013</v>
       </c>
       <c r="P9">
-        <v>0.5793931975337572</v>
+        <v>0.6799428899903026</v>
       </c>
       <c r="Q9">
-        <v>211.8422841673295</v>
+        <v>0.7137266208523333</v>
       </c>
       <c r="R9">
-        <v>211.8422841673295</v>
+        <v>6.423539587671001</v>
       </c>
       <c r="S9">
-        <v>0.4475132683592762</v>
+        <v>0.001293136941963064</v>
       </c>
       <c r="T9">
-        <v>0.4475132683592762</v>
+        <v>0.00199398698321569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.070339</v>
+      </c>
+      <c r="H10">
+        <v>0.211017</v>
+      </c>
+      <c r="I10">
+        <v>0.002198033693308568</v>
+      </c>
+      <c r="J10">
+        <v>0.002932580092490016</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.972691</v>
+      </c>
+      <c r="N10">
+        <v>13.945382</v>
+      </c>
+      <c r="O10">
+        <v>0.4042731394156123</v>
+      </c>
+      <c r="P10">
+        <v>0.3114912786506331</v>
+      </c>
+      <c r="Q10">
+        <v>0.490452112249</v>
+      </c>
+      <c r="R10">
+        <v>2.942712673494</v>
+      </c>
+      <c r="S10">
+        <v>0.0008886059817351477</v>
+      </c>
+      <c r="T10">
+        <v>0.0009134731227551069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.028134</v>
+      </c>
+      <c r="H11">
+        <v>0.084402</v>
+      </c>
+      <c r="I11">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J11">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.12783</v>
+      </c>
+      <c r="N11">
+        <v>0.38349</v>
+      </c>
+      <c r="O11">
+        <v>0.007411519513986452</v>
+      </c>
+      <c r="P11">
+        <v>0.008565831359064333</v>
+      </c>
+      <c r="Q11">
+        <v>0.00359636922</v>
+      </c>
+      <c r="R11">
+        <v>0.03236732298</v>
+      </c>
+      <c r="S11">
+        <v>6.515937278291706E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.004742320379449E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.028134</v>
+      </c>
+      <c r="H12">
+        <v>0.084402</v>
+      </c>
+      <c r="I12">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J12">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.14695433333333</v>
+      </c>
+      <c r="N12">
+        <v>30.440863</v>
+      </c>
+      <c r="O12">
+        <v>0.5883153410704013</v>
+      </c>
+      <c r="P12">
+        <v>0.6799428899903026</v>
+      </c>
+      <c r="Q12">
+        <v>0.285474413214</v>
+      </c>
+      <c r="R12">
+        <v>2.569269718926</v>
+      </c>
+      <c r="S12">
+        <v>0.0005172253618218746</v>
+      </c>
+      <c r="T12">
+        <v>0.0007975494360993223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="H10">
-        <v>23.7744814118673</v>
-      </c>
-      <c r="I10">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="J10">
-        <v>0.7723826759861169</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.37317168783307</v>
-      </c>
-      <c r="N10">
-        <v>6.37317168783307</v>
-      </c>
-      <c r="O10">
-        <v>0.4144073143459959</v>
-      </c>
-      <c r="P10">
-        <v>0.4144073143459959</v>
-      </c>
-      <c r="Q10">
-        <v>151.5188518270263</v>
-      </c>
-      <c r="R10">
-        <v>151.5188518270263</v>
-      </c>
-      <c r="S10">
-        <v>0.3200810304027802</v>
-      </c>
-      <c r="T10">
-        <v>0.3200810304027802</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.028134</v>
+      </c>
+      <c r="H13">
+        <v>0.084402</v>
+      </c>
+      <c r="I13">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J13">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.972691</v>
+      </c>
+      <c r="N13">
+        <v>13.945382</v>
+      </c>
+      <c r="O13">
+        <v>0.4042731394156123</v>
+      </c>
+      <c r="P13">
+        <v>0.3114912786506331</v>
+      </c>
+      <c r="Q13">
+        <v>0.196169688594</v>
+      </c>
+      <c r="R13">
+        <v>1.177018131564</v>
+      </c>
+      <c r="S13">
+        <v>0.0003554221795893693</v>
+      </c>
+      <c r="T13">
+        <v>0.0003653684703449321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.046532</v>
+      </c>
+      <c r="H14">
+        <v>48.093064</v>
+      </c>
+      <c r="I14">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J14">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.12783</v>
+      </c>
+      <c r="N14">
+        <v>0.38349</v>
+      </c>
+      <c r="O14">
+        <v>0.007411519513986452</v>
+      </c>
+      <c r="P14">
+        <v>0.008565831359064333</v>
+      </c>
+      <c r="Q14">
+        <v>3.07386818556</v>
+      </c>
+      <c r="R14">
+        <v>18.44320911336</v>
+      </c>
+      <c r="S14">
+        <v>0.005569264742746655</v>
+      </c>
+      <c r="T14">
+        <v>0.005725117499291171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.046532</v>
+      </c>
+      <c r="H15">
+        <v>48.093064</v>
+      </c>
+      <c r="I15">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J15">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.14695433333333</v>
+      </c>
+      <c r="N15">
+        <v>30.440863</v>
+      </c>
+      <c r="O15">
+        <v>0.5883153410704013</v>
+      </c>
+      <c r="P15">
+        <v>0.6799428899903026</v>
+      </c>
+      <c r="Q15">
+        <v>243.9990620790387</v>
+      </c>
+      <c r="R15">
+        <v>1463.994372474232</v>
+      </c>
+      <c r="S15">
+        <v>0.4420799109355685</v>
+      </c>
+      <c r="T15">
+        <v>0.4544512697979741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.046532</v>
+      </c>
+      <c r="H16">
+        <v>48.093064</v>
+      </c>
+      <c r="I16">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J16">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.972691</v>
+      </c>
+      <c r="N16">
+        <v>13.945382</v>
+      </c>
+      <c r="O16">
+        <v>0.4042731394156123</v>
+      </c>
+      <c r="P16">
+        <v>0.3114912786506331</v>
+      </c>
+      <c r="Q16">
+        <v>167.669037257612</v>
+      </c>
+      <c r="R16">
+        <v>670.676149030448</v>
+      </c>
+      <c r="S16">
+        <v>0.3037844179642253</v>
+      </c>
+      <c r="T16">
+        <v>0.2081904365759214</v>
       </c>
     </row>
   </sheetData>
